--- a/DER.xlsx
+++ b/DER.xlsx
@@ -737,7 +737,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
